--- a/PVB Stage Applicatie/App_Data/uploads/StagiairInvoegen.xlsx
+++ b/PVB Stage Applicatie/App_Data/uploads/StagiairInvoegen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
   <si>
     <t>Voornaam</t>
   </si>
@@ -49,34 +49,319 @@
     <t>Opleiding</t>
   </si>
   <si>
+    <t>Kris</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Maikel</t>
+  </si>
+  <si>
     <t>Marco</t>
   </si>
   <si>
+    <t>Maho</t>
+  </si>
+  <si>
+    <t>Gerton</t>
+  </si>
+  <si>
+    <t>Akif</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Marcel</t>
+  </si>
+  <si>
+    <t>Famke</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>Henny</t>
+  </si>
+  <si>
+    <t>Scholte Lubberink</t>
+  </si>
+  <si>
+    <t>Waanders</t>
+  </si>
+  <si>
+    <t>Scheffer</t>
+  </si>
+  <si>
     <t>Woldering</t>
   </si>
   <si>
-    <t>mwoldering01@student.rocvantwente.nl</t>
+    <t>Murtic</t>
+  </si>
+  <si>
+    <t>Schuringa</t>
+  </si>
+  <si>
+    <t>Yavuz</t>
+  </si>
+  <si>
+    <t>Hup</t>
+  </si>
+  <si>
+    <t>Mensink</t>
+  </si>
+  <si>
+    <t>Warmes</t>
+  </si>
+  <si>
+    <t>Groothuis</t>
+  </si>
+  <si>
+    <t>Lansink</t>
+  </si>
+  <si>
+    <t>Mannega</t>
+  </si>
+  <si>
+    <t>Bouwhuis</t>
+  </si>
+  <si>
+    <t>Huisman</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>kscholtelubberink01@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>bwaanders01@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>mscheffer02@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>mwoldering02@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>mmurtic01@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>ayavuz01@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>gschuringa08@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>lhup03@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>kmensink@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>mwarmes11@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>fgroothuis01@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>alansink02@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>jmannega02@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>bbouwhuis@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>hhuisman@student.rocvantwente.nl</t>
+  </si>
+  <si>
+    <t>Kipboomweg</t>
+  </si>
+  <si>
+    <t>Weerselosestraat</t>
+  </si>
+  <si>
+    <t>Lindenweg</t>
+  </si>
+  <si>
+    <t>Bomenweg</t>
+  </si>
+  <si>
+    <t>Bloemenweg</t>
+  </si>
+  <si>
+    <t>Filmlaan</t>
+  </si>
+  <si>
+    <t>Kerkelaan</t>
+  </si>
+  <si>
+    <t>Bisschopslaan</t>
+  </si>
+  <si>
+    <t>Bornsestraat</t>
+  </si>
+  <si>
+    <t>Allesweg</t>
+  </si>
+  <si>
+    <t>Niksweg</t>
+  </si>
+  <si>
+    <t>Langelaan</t>
+  </si>
+  <si>
+    <t>De weg</t>
+  </si>
+  <si>
+    <t>welke weg</t>
+  </si>
+  <si>
+    <t>ja weg</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>3242er</t>
-  </si>
-  <si>
-    <t>enschede</t>
-  </si>
-  <si>
-    <t>0254170</t>
+    <t>2349ER</t>
+  </si>
+  <si>
+    <t>2348ER</t>
+  </si>
+  <si>
+    <t>3847RR</t>
+  </si>
+  <si>
+    <t>8348OP</t>
+  </si>
+  <si>
+    <t>2839UI</t>
+  </si>
+  <si>
+    <t>9328AU</t>
+  </si>
+  <si>
+    <t>2387YU</t>
+  </si>
+  <si>
+    <t>7438II</t>
+  </si>
+  <si>
+    <t>0293HU</t>
+  </si>
+  <si>
+    <t>2839PO</t>
+  </si>
+  <si>
+    <t>3245UI</t>
+  </si>
+  <si>
+    <t>2387PP</t>
+  </si>
+  <si>
+    <t>2332UU</t>
+  </si>
+  <si>
+    <t>2388UI</t>
+  </si>
+  <si>
+    <t>2389PP</t>
+  </si>
+  <si>
+    <t>Agelo</t>
+  </si>
+  <si>
+    <t>Enschede</t>
+  </si>
+  <si>
+    <t>Hengelo</t>
+  </si>
+  <si>
+    <t>Almelo</t>
+  </si>
+  <si>
+    <t>Ootmarsum</t>
+  </si>
+  <si>
+    <t>Denekamp</t>
+  </si>
+  <si>
+    <t>Tilligte</t>
+  </si>
+  <si>
+    <t>Oldenzaal</t>
+  </si>
+  <si>
+    <t>0236210</t>
+  </si>
+  <si>
+    <t>0236211</t>
+  </si>
+  <si>
+    <t>0236212</t>
+  </si>
+  <si>
+    <t>0236213</t>
+  </si>
+  <si>
+    <t>0236214</t>
+  </si>
+  <si>
+    <t>0236215</t>
+  </si>
+  <si>
+    <t>0236216</t>
+  </si>
+  <si>
+    <t>0236217</t>
+  </si>
+  <si>
+    <t>0236218</t>
+  </si>
+  <si>
+    <t>0236219</t>
+  </si>
+  <si>
+    <t>0236220</t>
+  </si>
+  <si>
+    <t>0236221</t>
+  </si>
+  <si>
+    <t>0236222</t>
+  </si>
+  <si>
+    <t>0236223</t>
+  </si>
+  <si>
+    <t>0236224</t>
+  </si>
+  <si>
+    <t>Ict</t>
   </si>
   <si>
     <t>Zorg</t>
   </si>
   <si>
-    <t>Mocroweg</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>Opleidingsniveau</t>
   </si>
 </sst>
 </file>
@@ -152,12 +437,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -463,11 +751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,16 +763,17 @@
     <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="3"/>
     <col min="10" max="10" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -500,7 +789,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -518,43 +807,506 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="7">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="7">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>18</v>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7">
+        <v>32</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="10lxy3hFB9+DO15OP3gccEckC9YUXeSm+PXurU8Y4pf8lKpUJYpwZdpgJm70zexNwA9ADWa1us7prlVpFYvmgg==" saltValue="jDVlEZB5+UlPitETB4tjYg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aTXEZlAnNgGNovoX5mRSRKG8PXEQHlczwbLHoLW8GfxTUkdp48Y60+iNN2BZSjNFbi6eK/xjGbAjcVB7gnLuiA==" saltValue="aa9qJWdT/xt5+wCBiWqzbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="A2:K999" name="Range1"/>
+    <protectedRange sqref="A2:L999" name="Range1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
